--- a/Project_Selenium_2/devto_latest_10_posts.xlsx
+++ b/Project_Selenium_2/devto_latest_10_posts.xlsx
@@ -443,70 +443,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://dev.to/notadevbuthere/the-ai-tools-nobody-builds-but-every-developer-secretly-needs-4bid</t>
+          <t>https://dev.to/pascal_cescato_692b7a8a20/respiration-1l86</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://dev.to/xwero/other-languages-than-english-in-code-5181</t>
+          <t>https://dev.to/kirodotdev/no-vibe-no-code-bootstrapping-ideas-o88</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://dev.to/meteroid/anthropic-just-bought-bunjs-heres-why-6bh</t>
+          <t>https://dev.to/devteam/you-can-now-use-youtube-videos-as-your-cover-video-on-dev-posts-also-mux-and-twitch-videos-360b</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://dev.to/nickytonline/advent-of-ai-2025-day-2-building-a-winter-festival-game-41eg</t>
+          <t>https://dev.to/meteroid/anthropic-just-bought-bunjs-heres-why-6bh</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://dev.to/aws-builders/reinvent25-jour-1-boom--3i1h</t>
+          <t>https://dev.to/devteam/devs-worldwide-show-and-tell-challenge-presented-by-mux-pitch-your-projects-3000-in-prizes-40g7</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://dev.to/abinjith_tk_e85889d1609a4/building-necroos-a-horror-themed-windows-95-simulator-with-kiro-ai-3m4d</t>
+          <t>https://dev.to/devteam/ai-agents-intensive-course-writing-challenge-with-google-and-kaggle-deadline-extended-324d</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://dev.to/canro91/dont-learn-prompt-engineering-heres-what-matters-more-52cd</t>
+          <t>https://dev.to/arjuncodess/anthropic-bought-bun-heres-what-it-really-means-for-us-kj2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://dev.to/donbale/the-vibe-coding-hangover-how-to-stop-ai-from-ruining-your-codebase-52n5</t>
+          <t>https://dev.to/simiyu-samuel/i-built-a-game-that-reads-your-mind-using-100-ai-njk</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://dev.to/aditmodi/aws-reinvent-2025-matt-garmans-keynote-a-builders-breakdown-36o3</t>
+          <t>https://dev.to/blackgirlbytes/how-to-query-a-railway-sqlite-database-from-github-actions-376j</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://dev.to/simiyu-samuel/i-built-a-game-that-reads-your-mind-using-100-ai-njk</t>
+          <t>https://dev.to/prodbld/toon-vs-json-a-reality-check-when-it-saves-tokens-and-when-it-doesnt-1b6m</t>
         </is>
       </c>
     </row>
